--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_27.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzinger\Documents\data\data\snowballing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29025FF7-4676-4729-A511-5ED459A9225E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C6054-FE17-6544-886B-411AD14139CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="533">
   <si>
     <t>record_id</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Hafemann_2020_the</t>
   </si>
   <si>
-    <t>extract irf</t>
-  </si>
-  <si>
     <t>3M7BXY6G</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1111/ecoj.12593</t>
-  </si>
-  <si>
-    <t>one table</t>
   </si>
   <si>
     <t>JRKKY4SP</t>
@@ -1647,10 +1641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1685,20 +1676,15 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1723,11 +1709,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1737,8 +1722,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1826,9 +1812,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1866,7 +1852,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1972,7 +1958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2114,7 +2100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2124,13 +2110,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="R2" zoomScale="150" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2237,8 +2223,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="9">
+    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>197</v>
       </c>
       <c r="B2" t="s">
@@ -2264,8 +2250,8 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>271</v>
+      <c r="I2" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
@@ -2321,7 +2307,9 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
+      <c r="AG2" s="2">
+        <v>1</v>
+      </c>
       <c r="AH2">
         <v>1</v>
       </c>
@@ -2329,8 +2317,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
         <v>245</v>
       </c>
       <c r="B3" t="s">
@@ -2409,9 +2397,6 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" t="s">
-        <v>54</v>
-      </c>
       <c r="AG3" s="2">
         <v>1</v>
       </c>
@@ -2422,61 +2407,61 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="9">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <v>136</v>
       </c>
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
       </c>
       <c r="E4">
         <v>2022</v>
       </c>
       <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
         <v>58</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
         <v>62</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="S4" s="4">
         <v>45261</v>
@@ -2492,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
         <v>45</v>
@@ -2504,7 +2489,9 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
+      <c r="AG4" s="2">
+        <v>1</v>
+      </c>
       <c r="AH4">
         <v>1</v>
       </c>
@@ -2512,18 +2499,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="9">
+    <row r="5" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>188</v>
       </c>
       <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -2540,21 +2527,21 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>271</v>
+      <c r="I5" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>71</v>
       </c>
-      <c r="M5" t="s">
-        <v>72</v>
-      </c>
       <c r="N5" s="2">
         <v>1</v>
       </c>
@@ -2568,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S5" s="4">
         <v>45261</v>
@@ -2580,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>73</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
       </c>
       <c r="Y5" t="s">
         <v>45</v>
@@ -2598,7 +2585,9 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
       <c r="AH5">
         <v>1</v>
       </c>
@@ -2606,61 +2595,61 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="9">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>83</v>
       </c>
       <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>77</v>
       </c>
       <c r="E6">
         <v>2006</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
       </c>
       <c r="I6" t="s">
         <v>39</v>
       </c>
       <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
         <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
       </c>
       <c r="L6" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="S6" s="4">
         <v>45261</v>
@@ -2676,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
         <v>45</v>
@@ -2688,7 +2677,9 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
       <c r="AH6">
         <v>1</v>
       </c>
@@ -2696,60 +2687,60 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>165</v>
       </c>
       <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>88</v>
       </c>
       <c r="E7">
         <v>2018</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>90</v>
-      </c>
-      <c r="H7" t="s">
-        <v>91</v>
       </c>
       <c r="I7" t="s">
         <v>39</v>
       </c>
       <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>93</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>94</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="S7" s="4">
         <v>45261</v>
@@ -2763,9 +2754,6 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2">
         <v>1</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="Y7" t="s">
         <v>45</v>
@@ -2777,7 +2765,9 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
       <c r="AH7">
         <v>1</v>
       </c>
@@ -2785,18 +2775,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="9">
+    <row r="8" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>192</v>
       </c>
       <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
         <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
       </c>
       <c r="E8">
         <v>2020</v>
@@ -2813,36 +2803,36 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>271</v>
+      <c r="I8" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K8" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="S8" s="4">
         <v>45261</v>
@@ -2858,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
         <v>45</v>
@@ -2870,7 +2860,9 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
       <c r="AH8">
         <v>1</v>
       </c>
@@ -2878,18 +2870,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="9">
+    <row r="9" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>200</v>
       </c>
       <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
         <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
       </c>
       <c r="E9">
         <v>2009</v>
@@ -2906,35 +2898,35 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>271</v>
+      <c r="I9" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="M9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="S9" s="4">
         <v>45261</v>
@@ -2946,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W9" s="2">
         <v>1</v>
@@ -2961,9 +2953,6 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" t="s">
-        <v>54</v>
-      </c>
       <c r="AG9" s="2">
         <v>1</v>
       </c>
@@ -2974,46 +2963,46 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="9">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
         <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
       </c>
       <c r="E10">
         <v>2020</v>
       </c>
       <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
         <v>117</v>
-      </c>
-      <c r="G10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" t="s">
-        <v>119</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L10" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -3028,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S10" s="4">
         <v>45261</v>
@@ -3044,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
         <v>45</v>
@@ -3056,7 +3045,9 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AG10" s="2">
+        <v>1</v>
+      </c>
       <c r="AH10">
         <v>1</v>
       </c>
@@ -3064,18 +3055,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="9">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>181</v>
       </c>
       <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
         <v>125</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" t="s">
-        <v>127</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -3084,26 +3075,26 @@
         <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
         <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K11" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
@@ -3118,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S11" s="4">
         <v>45261</v>
@@ -3134,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y11" t="s">
         <v>45</v>
@@ -3146,7 +3137,9 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
       <c r="AH11">
         <v>1</v>
       </c>
@@ -3154,18 +3147,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
-      <c r="A12" s="9">
+    <row r="12" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>236</v>
       </c>
       <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
         <v>133</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
       </c>
       <c r="E12">
         <v>2020</v>
@@ -3182,35 +3175,35 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>271</v>
+      <c r="I12" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
         <v>136</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>137</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="M12" t="s">
-        <v>139</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="S12" s="4">
         <v>45261</v>
@@ -3222,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W12" s="2">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y12" t="s">
         <v>45</v>
@@ -3240,7 +3233,9 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
       <c r="AH12">
         <v>1</v>
       </c>
@@ -3248,46 +3243,46 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="9">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
         <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
       </c>
       <c r="E13">
         <v>2022</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L13" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -3302,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S13" s="4">
         <v>45261</v>
@@ -3318,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
         <v>45</v>
@@ -3330,7 +3325,9 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
       <c r="AH13">
         <v>1</v>
       </c>
@@ -3338,46 +3335,46 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
-      <c r="A14" s="9">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
         <v>45</v>
       </c>
       <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
         <v>151</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" t="s">
-        <v>153</v>
       </c>
       <c r="E14">
         <v>2011</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
         <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L14" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
@@ -3392,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S14" s="4">
         <v>45261</v>
@@ -3408,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s">
         <v>45</v>
@@ -3420,7 +3417,9 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="AG14" s="2">
+        <v>1</v>
+      </c>
       <c r="AH14">
         <v>1</v>
       </c>
@@ -3428,61 +3427,61 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
-      <c r="A15" s="9">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
         <v>193</v>
       </c>
       <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" t="s">
         <v>160</v>
-      </c>
-      <c r="C15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" t="s">
-        <v>162</v>
       </c>
       <c r="E15">
         <v>2016</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G15" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
       </c>
       <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
         <v>165</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>166</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="M15" t="s">
-        <v>168</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="S15" s="4">
         <v>45261</v>
@@ -3498,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
         <v>45</v>
@@ -3510,7 +3509,9 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="AG15" s="2">
+        <v>1</v>
+      </c>
       <c r="AH15">
         <v>1</v>
       </c>
@@ -3518,18 +3519,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
-      <c r="A16" s="9">
+    <row r="16" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>109</v>
       </c>
       <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" t="s">
         <v>172</v>
-      </c>
-      <c r="C16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" t="s">
-        <v>174</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -3546,21 +3547,21 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>271</v>
+      <c r="I16" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L16" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
@@ -3575,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S16" s="4">
         <v>45261</v>
@@ -3600,9 +3601,6 @@
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" t="s">
-        <v>54</v>
-      </c>
       <c r="AG16" s="2">
         <v>1</v>
       </c>
@@ -3613,24 +3611,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="9">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
         <v>211</v>
       </c>
       <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" t="s">
         <v>179</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" t="s">
-        <v>181</v>
       </c>
       <c r="E17">
         <v>2022</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G17" t="e">
         <f>#N/A</f>
@@ -3644,31 +3642,31 @@
         <v>39</v>
       </c>
       <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
         <v>183</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>184</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="M17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="S17" s="4">
         <v>45261</v>
@@ -3684,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y17" t="s">
         <v>45</v>
@@ -3696,7 +3694,9 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
+      <c r="AG17" s="2">
+        <v>1</v>
+      </c>
       <c r="AH17">
         <v>1</v>
       </c>
@@ -3704,46 +3704,46 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="9">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
         <v>115</v>
       </c>
       <c r="B18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" t="s">
         <v>188</v>
-      </c>
-      <c r="C18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" t="s">
-        <v>190</v>
       </c>
       <c r="E18">
         <v>2022</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L18" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S18" s="4">
         <v>45261</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y18" t="s">
         <v>45</v>
@@ -3786,7 +3786,9 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
+      <c r="AG18" s="2">
+        <v>1</v>
+      </c>
       <c r="AH18">
         <v>1</v>
       </c>
@@ -3794,46 +3796,46 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="9">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
         <v>47</v>
       </c>
       <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" t="s">
         <v>197</v>
-      </c>
-      <c r="C19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" t="s">
-        <v>199</v>
       </c>
       <c r="E19">
         <v>2005</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L19" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
@@ -3848,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S19" s="4">
         <v>45261</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s">
         <v>45</v>
@@ -3876,7 +3878,9 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
+      <c r="AG19" s="2">
+        <v>1</v>
+      </c>
       <c r="AH19">
         <v>1</v>
       </c>
@@ -3884,61 +3888,61 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="9">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
         <v>137</v>
       </c>
       <c r="B20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
         <v>207</v>
-      </c>
-      <c r="C20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" t="s">
-        <v>209</v>
       </c>
       <c r="E20">
         <v>1994</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K20" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s">
+        <v>211</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="M20" t="s">
-        <v>213</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="S20" s="4">
         <v>45261</v>
@@ -3966,7 +3970,9 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+      <c r="AG20" s="2">
+        <v>1</v>
+      </c>
       <c r="AH20">
         <v>1</v>
       </c>
@@ -3974,46 +3980,46 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="9">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
         <v>212</v>
       </c>
       <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" t="s">
         <v>215</v>
-      </c>
-      <c r="C21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" t="s">
-        <v>217</v>
       </c>
       <c r="E21">
         <v>2023</v>
       </c>
       <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" t="s">
         <v>218</v>
-      </c>
-      <c r="G21" t="s">
-        <v>219</v>
-      </c>
-      <c r="H21" t="s">
-        <v>220</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L21" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2">
         <v>1</v>
@@ -4028,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S21" s="4">
         <v>45261</v>
@@ -4053,9 +4059,6 @@
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" t="s">
-        <v>54</v>
-      </c>
       <c r="AG21" s="2">
         <v>1</v>
       </c>
@@ -4066,18 +4069,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="9">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>263</v>
       </c>
       <c r="B22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" t="s">
         <v>225</v>
-      </c>
-      <c r="C22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" t="s">
-        <v>227</v>
       </c>
       <c r="E22">
         <v>2023</v>
@@ -4095,20 +4098,20 @@
         <v>#N/A</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K22" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2">
         <v>1</v>
@@ -4123,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S22" s="4">
         <v>45261</v>
@@ -4139,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
         <v>45</v>
@@ -4151,7 +4154,9 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
+      <c r="AG22" s="2">
+        <v>1</v>
+      </c>
       <c r="AH22">
         <v>1</v>
       </c>
@@ -4159,18 +4164,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="9">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
         <v>224</v>
       </c>
       <c r="B23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" t="s">
         <v>232</v>
-      </c>
-      <c r="C23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" t="s">
-        <v>234</v>
       </c>
       <c r="E23">
         <v>2016</v>
@@ -4188,34 +4193,34 @@
         <v>#N/A</v>
       </c>
       <c r="I23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s">
         <v>235</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>236</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="M23" t="s">
-        <v>238</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="S23" s="4">
         <v>45261</v>
@@ -4240,9 +4245,6 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" t="s">
-        <v>54</v>
-      </c>
       <c r="AG23" s="2">
         <v>1</v>
       </c>
@@ -4253,46 +4255,46 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="9">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
         <v>77</v>
       </c>
       <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="s">
         <v>240</v>
-      </c>
-      <c r="C24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" t="s">
-        <v>242</v>
       </c>
       <c r="E24">
         <v>2005</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I24" t="s">
         <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L24" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -4307,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S24" s="4">
         <v>45261</v>
@@ -4332,9 +4334,6 @@
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-      <c r="AF24" t="s">
-        <v>54</v>
-      </c>
       <c r="AG24" s="2">
         <v>1</v>
       </c>
@@ -4345,60 +4344,60 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="9">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
         <v>146</v>
       </c>
       <c r="B25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" t="s">
         <v>248</v>
-      </c>
-      <c r="C25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25" t="s">
-        <v>250</v>
       </c>
       <c r="E25">
         <v>2021</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I25" t="s">
         <v>39</v>
       </c>
       <c r="J25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s">
         <v>253</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>254</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="M25" t="s">
-        <v>256</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="S25" s="4">
         <v>45261</v>
@@ -4414,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y25" t="s">
         <v>45</v>
@@ -4426,7 +4425,9 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
+      <c r="AG25" s="2">
+        <v>1</v>
+      </c>
       <c r="AH25">
         <v>1</v>
       </c>
@@ -4434,46 +4435,46 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="9">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
         <v>260</v>
       </c>
       <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" t="s">
         <v>258</v>
-      </c>
-      <c r="C26" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" t="s">
-        <v>260</v>
       </c>
       <c r="E26">
         <v>2023</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I26" t="s">
         <v>39</v>
       </c>
       <c r="J26" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" t="s">
         <v>262</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>263</v>
       </c>
-      <c r="L26" t="s">
-        <v>264</v>
-      </c>
-      <c r="M26" t="s">
-        <v>265</v>
-      </c>
       <c r="N26" s="2">
         <v>1</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S26" s="4">
         <v>45261</v>
@@ -4503,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -4522,24 +4523,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="9">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
         <v>261</v>
       </c>
       <c r="B27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" t="s">
         <v>267</v>
-      </c>
-      <c r="C27" t="s">
-        <v>268</v>
-      </c>
-      <c r="D27" t="s">
-        <v>269</v>
       </c>
       <c r="E27">
         <v>2022</v>
       </c>
       <c r="F27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G27" t="e">
         <f>#N/A</f>
@@ -4550,20 +4551,20 @@
         <v>#N/A</v>
       </c>
       <c r="I27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K27" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N27" s="2">
         <v>1</v>
@@ -4578,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S27" s="4">
         <v>45261</v>
@@ -4594,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="Y27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -4604,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2">
@@ -4617,24 +4618,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="9">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
         <v>239</v>
       </c>
       <c r="B28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" t="s">
         <v>276</v>
-      </c>
-      <c r="C28" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" t="s">
-        <v>278</v>
       </c>
       <c r="E28">
         <v>2023</v>
       </c>
       <c r="F28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G28" t="e">
         <f>#N/A</f>
@@ -4645,35 +4646,35 @@
         <v>#N/A</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K28" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L28" t="s">
+        <v>279</v>
+      </c>
+      <c r="M28" t="s">
+        <v>280</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="M28" t="s">
-        <v>282</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="S28" s="4">
         <v>45261</v>
@@ -4689,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -4708,46 +4709,46 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="9">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
         <v>13</v>
       </c>
       <c r="B29" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" t="s">
         <v>285</v>
-      </c>
-      <c r="C29" t="s">
-        <v>286</v>
-      </c>
-      <c r="D29" t="s">
-        <v>287</v>
       </c>
       <c r="E29">
         <v>2021</v>
       </c>
       <c r="F29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I29" t="s">
         <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L29" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N29" s="2">
         <v>1</v>
@@ -4762,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S29" s="4">
         <v>45261</v>
@@ -4778,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -4799,61 +4800,61 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="9">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
         <v>129</v>
       </c>
       <c r="B30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D30" t="s">
         <v>293</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D30" t="s">
-        <v>295</v>
       </c>
       <c r="E30">
         <v>2019</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I30" t="s">
         <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K30" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L30" t="s">
+        <v>297</v>
+      </c>
+      <c r="M30" t="s">
+        <v>298</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="M30" t="s">
-        <v>300</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="S30" s="4">
         <v>45261</v>
@@ -4869,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -4891,18 +4892,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="9">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
         <v>215</v>
       </c>
       <c r="B31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" t="s">
         <v>303</v>
-      </c>
-      <c r="C31" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" t="s">
-        <v>305</v>
       </c>
       <c r="E31">
         <v>2021</v>
@@ -4920,34 +4921,34 @@
         <v>#N/A</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
+        <v>304</v>
+      </c>
+      <c r="K31" t="s">
+        <v>305</v>
+      </c>
+      <c r="L31" t="s">
         <v>306</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>307</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="M31" t="s">
-        <v>309</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="S31" s="4">
         <v>45261</v>
@@ -4963,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
@@ -4982,24 +4983,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
-      <c r="A32" s="9">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
         <v>256</v>
       </c>
       <c r="B32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" t="s">
         <v>311</v>
-      </c>
-      <c r="C32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D32" t="s">
-        <v>313</v>
       </c>
       <c r="E32" s="2">
         <v>2021</v>
       </c>
       <c r="F32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G32">
         <v>636</v>
@@ -5011,34 +5012,34 @@
         <v>39</v>
       </c>
       <c r="J32" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32" t="s">
+        <v>314</v>
+      </c>
+      <c r="M32" t="s">
         <v>315</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5" t="s">
         <v>316</v>
-      </c>
-      <c r="M32" t="s">
-        <v>317</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="S32" s="4">
         <v>45261</v>
       </c>
-      <c r="T32" s="7" t="s">
-        <v>319</v>
+      <c r="T32" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -5051,7 +5052,7 @@
         <v>44</v>
       </c>
       <c r="Y32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
@@ -5070,24 +5071,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="9">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
         <v>56</v>
       </c>
       <c r="B33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
+      <c r="D33" t="s">
         <v>320</v>
-      </c>
-      <c r="C33" t="s">
-        <v>321</v>
-      </c>
-      <c r="D33" t="s">
-        <v>322</v>
       </c>
       <c r="E33" s="2">
         <v>2018</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -5099,37 +5100,37 @@
         <v>39</v>
       </c>
       <c r="J33" t="s">
+        <v>321</v>
+      </c>
+      <c r="K33" t="s">
+        <v>322</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
         <v>324</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="M33" t="s">
-        <v>326</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="S33" s="4">
         <v>45261</v>
       </c>
-      <c r="T33" s="7" t="s">
-        <v>319</v>
+      <c r="T33" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -5139,10 +5140,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Y33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
@@ -5161,24 +5162,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="9">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
         <v>226</v>
       </c>
       <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" t="s">
         <v>329</v>
-      </c>
-      <c r="C34" t="s">
-        <v>330</v>
-      </c>
-      <c r="D34" t="s">
-        <v>331</v>
       </c>
       <c r="E34" s="2">
         <v>2021</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G34">
         <v>69</v>
@@ -5190,37 +5191,37 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
+        <v>331</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L34" t="s">
+        <v>332</v>
+      </c>
+      <c r="M34" t="s">
         <v>333</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="M34" t="s">
-        <v>335</v>
-      </c>
-      <c r="N34" s="2">
-        <v>1</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="S34" s="4">
         <v>45261</v>
       </c>
-      <c r="T34" s="7" t="s">
-        <v>319</v>
+      <c r="T34" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
@@ -5230,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Y34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
@@ -5252,24 +5253,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="9">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
         <v>105</v>
       </c>
       <c r="B35" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D35" t="s">
         <v>338</v>
-      </c>
-      <c r="C35" t="s">
-        <v>339</v>
-      </c>
-      <c r="D35" t="s">
-        <v>340</v>
       </c>
       <c r="E35" s="2">
         <v>2018</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -5281,37 +5282,37 @@
         <v>39</v>
       </c>
       <c r="J35" t="s">
+        <v>339</v>
+      </c>
+      <c r="K35" t="s">
+        <v>340</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M35" t="s">
         <v>341</v>
       </c>
-      <c r="K35" t="s">
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M35" t="s">
-        <v>343</v>
-      </c>
-      <c r="N35" s="2">
-        <v>1</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="S35" s="4">
         <v>45261</v>
       </c>
-      <c r="T35" s="7" t="s">
-        <v>319</v>
+      <c r="T35" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
@@ -5321,10 +5322,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -5343,24 +5344,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="9">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E36" s="2">
         <v>2022</v>
       </c>
       <c r="F36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -5372,37 +5373,37 @@
         <v>39</v>
       </c>
       <c r="J36" t="s">
+        <v>346</v>
+      </c>
+      <c r="K36" t="s">
+        <v>347</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M36" t="s">
         <v>348</v>
       </c>
-      <c r="K36" t="s">
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M36" t="s">
-        <v>350</v>
-      </c>
-      <c r="N36" s="2">
-        <v>1</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="S36" s="4">
         <v>45261</v>
       </c>
-      <c r="T36" s="7" t="s">
-        <v>319</v>
+      <c r="T36" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
@@ -5412,10 +5413,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Y36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -5434,27 +5435,27 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="9">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
         <v>86</v>
       </c>
       <c r="B37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" t="s">
         <v>353</v>
-      </c>
-      <c r="C37" t="s">
-        <v>354</v>
-      </c>
-      <c r="D37" t="s">
-        <v>355</v>
       </c>
       <c r="E37" s="2">
         <v>2020</v>
       </c>
       <c r="F37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H37">
         <v>52</v>
@@ -5463,37 +5464,37 @@
         <v>39</v>
       </c>
       <c r="J37" t="s">
+        <v>356</v>
+      </c>
+      <c r="K37" t="s">
+        <v>357</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="s">
         <v>358</v>
       </c>
-      <c r="K37" t="s">
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M37" t="s">
-        <v>360</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="S37" s="4">
         <v>45261</v>
       </c>
-      <c r="T37" s="7" t="s">
-        <v>319</v>
+      <c r="T37" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
@@ -5503,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -5525,24 +5526,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="9">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
         <v>259</v>
       </c>
       <c r="B38" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
+      <c r="D38" t="s">
         <v>362</v>
-      </c>
-      <c r="C38" t="s">
-        <v>363</v>
-      </c>
-      <c r="D38" t="s">
-        <v>364</v>
       </c>
       <c r="E38" s="2">
         <v>2020</v>
       </c>
       <c r="F38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G38">
         <v>314</v>
@@ -5554,37 +5555,37 @@
         <v>39</v>
       </c>
       <c r="J38" t="s">
+        <v>364</v>
+      </c>
+      <c r="K38" t="s">
+        <v>365</v>
+      </c>
+      <c r="L38" t="s">
         <v>366</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>367</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="M38" t="s">
-        <v>369</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>370</v>
       </c>
       <c r="S38" s="4">
         <v>45261</v>
       </c>
-      <c r="T38" s="7" t="s">
-        <v>319</v>
+      <c r="T38" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
@@ -5594,10 +5595,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
@@ -5616,66 +5617,66 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
-      <c r="A39" s="9">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
         <v>78</v>
       </c>
       <c r="B39" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" t="s">
+        <v>370</v>
+      </c>
+      <c r="D39" t="s">
         <v>371</v>
-      </c>
-      <c r="C39" t="s">
-        <v>372</v>
-      </c>
-      <c r="D39" t="s">
-        <v>373</v>
       </c>
       <c r="E39" s="2">
         <v>2017</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>325</v>
+      <c r="F39" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="I39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J39" t="s">
+        <v>372</v>
+      </c>
+      <c r="K39" t="s">
+        <v>373</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M39" t="s">
         <v>374</v>
       </c>
-      <c r="K39" t="s">
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M39" t="s">
-        <v>376</v>
-      </c>
-      <c r="N39" s="2">
-        <v>1</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="S39" s="4">
         <v>45261</v>
       </c>
-      <c r="T39" s="7" t="s">
-        <v>319</v>
+      <c r="T39" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
@@ -5688,7 +5689,7 @@
         <v>44</v>
       </c>
       <c r="Y39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -5707,24 +5708,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="9">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
         <v>89</v>
       </c>
       <c r="B40" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
+      <c r="D40" t="s">
         <v>378</v>
-      </c>
-      <c r="C40" t="s">
-        <v>379</v>
-      </c>
-      <c r="D40" t="s">
-        <v>380</v>
       </c>
       <c r="E40" s="2">
         <v>2018</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -5736,37 +5737,37 @@
         <v>39</v>
       </c>
       <c r="J40" t="s">
+        <v>379</v>
+      </c>
+      <c r="K40" t="s">
+        <v>380</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="s">
         <v>381</v>
       </c>
-      <c r="K40" t="s">
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M40" t="s">
-        <v>383</v>
-      </c>
-      <c r="N40" s="2">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="S40" s="4">
         <v>45261</v>
       </c>
-      <c r="T40" s="7" t="s">
-        <v>319</v>
+      <c r="T40" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U40" s="2">
         <v>0</v>
@@ -5777,7 +5778,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
@@ -5798,27 +5799,27 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="9">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
         <v>132</v>
       </c>
       <c r="B41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
+      <c r="D41" t="s">
         <v>385</v>
-      </c>
-      <c r="C41" t="s">
-        <v>386</v>
-      </c>
-      <c r="D41" t="s">
-        <v>387</v>
       </c>
       <c r="E41" s="2">
         <v>2020</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H41">
         <v>112</v>
@@ -5827,37 +5828,37 @@
         <v>39</v>
       </c>
       <c r="J41" t="s">
+        <v>387</v>
+      </c>
+      <c r="K41" t="s">
+        <v>388</v>
+      </c>
+      <c r="L41" t="s">
         <v>389</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>390</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="M41" t="s">
-        <v>392</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="S41" s="4">
         <v>45261</v>
       </c>
-      <c r="T41" s="7" t="s">
-        <v>319</v>
+      <c r="T41" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
@@ -5868,7 +5869,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
@@ -5879,10 +5880,10 @@
       <c r="AD41" s="2">
         <v>1</v>
       </c>
-      <c r="AE41" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="AF41" s="10"/>
+      <c r="AE41" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF41" s="11"/>
       <c r="AG41" s="2">
         <v>1</v>
       </c>
@@ -5893,66 +5894,66 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
-      <c r="A42" s="9">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
         <v>247</v>
       </c>
       <c r="B42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C42" t="s">
+        <v>394</v>
+      </c>
+      <c r="D42" t="s">
         <v>395</v>
-      </c>
-      <c r="C42" t="s">
-        <v>396</v>
-      </c>
-      <c r="D42" t="s">
-        <v>397</v>
       </c>
       <c r="E42" s="2">
         <v>1994</v>
       </c>
       <c r="F42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I42" t="s">
+        <v>397</v>
+      </c>
+      <c r="J42" t="s">
         <v>398</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="K42" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L42" t="s">
         <v>399</v>
       </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
         <v>400</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="M42" t="s">
-        <v>402</v>
-      </c>
-      <c r="N42" s="2">
-        <v>1</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="S42" s="4">
         <v>45261</v>
       </c>
-      <c r="T42" s="7" t="s">
-        <v>319</v>
+      <c r="T42" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
@@ -5962,10 +5963,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
@@ -5984,66 +5985,66 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
-      <c r="A43" s="9">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
         <v>251</v>
       </c>
       <c r="B43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C43" t="s">
+        <v>403</v>
+      </c>
+      <c r="D43" t="s">
         <v>404</v>
-      </c>
-      <c r="C43" t="s">
-        <v>405</v>
-      </c>
-      <c r="D43" t="s">
-        <v>406</v>
       </c>
       <c r="E43" s="2">
         <v>2017</v>
       </c>
       <c r="F43" t="s">
-        <v>407</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>325</v>
+        <v>405</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J43" t="s">
+        <v>406</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s">
+        <v>407</v>
+      </c>
+      <c r="M43" t="s">
         <v>408</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="M43" t="s">
-        <v>410</v>
-      </c>
-      <c r="N43" s="2">
-        <v>1</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="S43" s="4">
         <v>45261</v>
       </c>
-      <c r="T43" s="7" t="s">
-        <v>319</v>
+      <c r="T43" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
@@ -6053,10 +6054,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
@@ -6075,24 +6076,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="9">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E44" s="2">
         <v>2021</v>
       </c>
       <c r="F44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -6104,37 +6105,37 @@
         <v>39</v>
       </c>
       <c r="J44" t="s">
+        <v>412</v>
+      </c>
+      <c r="K44" t="s">
+        <v>413</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" t="s">
         <v>414</v>
       </c>
-      <c r="K44" t="s">
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M44" t="s">
-        <v>416</v>
-      </c>
-      <c r="N44" s="2">
-        <v>1</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="S44" s="4">
         <v>45261</v>
       </c>
-      <c r="T44" s="7" t="s">
-        <v>319</v>
+      <c r="T44" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
@@ -6144,10 +6145,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
@@ -6166,24 +6167,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="9">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
         <v>118</v>
       </c>
       <c r="B45" t="s">
+        <v>416</v>
+      </c>
+      <c r="C45" t="s">
+        <v>417</v>
+      </c>
+      <c r="D45" t="s">
         <v>418</v>
-      </c>
-      <c r="C45" t="s">
-        <v>419</v>
-      </c>
-      <c r="D45" t="s">
-        <v>420</v>
       </c>
       <c r="E45" s="2">
         <v>2007</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -6195,37 +6196,37 @@
         <v>39</v>
       </c>
       <c r="J45" t="s">
+        <v>419</v>
+      </c>
+      <c r="K45" t="s">
+        <v>420</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="s">
         <v>421</v>
       </c>
-      <c r="K45" t="s">
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M45" t="s">
-        <v>423</v>
-      </c>
-      <c r="N45" s="2">
-        <v>1</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="S45" s="4">
         <v>45261</v>
       </c>
-      <c r="T45" s="7" t="s">
-        <v>319</v>
+      <c r="T45" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U45" s="2">
         <v>0</v>
@@ -6235,10 +6236,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
@@ -6257,18 +6258,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
-      <c r="A46" s="9">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
         <v>237</v>
       </c>
       <c r="B46" t="s">
+        <v>423</v>
+      </c>
+      <c r="C46" t="s">
+        <v>424</v>
+      </c>
+      <c r="D46" t="s">
         <v>425</v>
-      </c>
-      <c r="C46" t="s">
-        <v>426</v>
-      </c>
-      <c r="D46" t="s">
-        <v>427</v>
       </c>
       <c r="E46" s="2">
         <v>2021</v>
@@ -6276,27 +6277,27 @@
       <c r="F46" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>325</v>
+      <c r="G46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="I46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J46" t="s">
+        <v>426</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s">
+        <v>427</v>
+      </c>
+      <c r="M46" t="s">
         <v>428</v>
       </c>
-      <c r="K46" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="L46" t="s">
-        <v>429</v>
-      </c>
-      <c r="M46" t="s">
-        <v>430</v>
-      </c>
       <c r="N46" s="2">
         <v>1</v>
       </c>
@@ -6310,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S46" s="4">
         <v>45261</v>
       </c>
-      <c r="T46" s="7" t="s">
-        <v>319</v>
+      <c r="T46" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
@@ -6327,7 +6328,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
@@ -6346,66 +6347,66 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
-      <c r="A47" s="9">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D47" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E47" s="2">
         <v>2021</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>325</v>
+      <c r="F47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="I47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J47" t="s">
+        <v>431</v>
+      </c>
+      <c r="K47" t="s">
+        <v>432</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M47" t="s">
         <v>433</v>
       </c>
-      <c r="K47" t="s">
+      <c r="N47" s="2">
+        <v>1</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M47" t="s">
-        <v>435</v>
-      </c>
-      <c r="N47" s="2">
-        <v>1</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="S47" s="4">
         <v>45261</v>
       </c>
-      <c r="T47" s="7" t="s">
-        <v>319</v>
+      <c r="T47" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
@@ -6416,7 +6417,7 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
@@ -6435,27 +6436,27 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="9">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
         <v>262</v>
       </c>
       <c r="B48" t="s">
+        <v>435</v>
+      </c>
+      <c r="C48" t="s">
+        <v>436</v>
+      </c>
+      <c r="D48" t="s">
         <v>437</v>
-      </c>
-      <c r="C48" t="s">
-        <v>438</v>
-      </c>
-      <c r="D48" t="s">
-        <v>439</v>
       </c>
       <c r="E48" s="2">
         <v>2023</v>
       </c>
       <c r="F48" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H48">
         <v>128</v>
@@ -6464,37 +6465,37 @@
         <v>39</v>
       </c>
       <c r="J48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L48" t="s">
+        <v>440</v>
+      </c>
+      <c r="M48" t="s">
         <v>441</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="N48" s="2">
+        <v>1</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="M48" t="s">
-        <v>443</v>
-      </c>
-      <c r="N48" s="2">
-        <v>1</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="S48" s="4">
         <v>45261</v>
       </c>
-      <c r="T48" s="7" t="s">
-        <v>319</v>
+      <c r="T48" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
@@ -6505,7 +6506,7 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
@@ -6516,10 +6517,10 @@
       <c r="AD48" s="2">
         <v>1</v>
       </c>
-      <c r="AE48" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="AF48" s="10"/>
+      <c r="AE48" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF48" s="11"/>
       <c r="AG48" s="2">
         <v>1</v>
       </c>
@@ -6530,27 +6531,27 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="9">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
         <v>99</v>
       </c>
       <c r="B49" t="s">
+        <v>444</v>
+      </c>
+      <c r="C49" t="s">
+        <v>445</v>
+      </c>
+      <c r="D49" t="s">
         <v>446</v>
-      </c>
-      <c r="C49" t="s">
-        <v>447</v>
-      </c>
-      <c r="D49" t="s">
-        <v>448</v>
       </c>
       <c r="E49" s="2">
         <v>2015</v>
       </c>
       <c r="F49" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G49" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H49">
         <v>47</v>
@@ -6559,37 +6560,37 @@
         <v>39</v>
       </c>
       <c r="J49" t="s">
+        <v>448</v>
+      </c>
+      <c r="K49" t="s">
+        <v>449</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M49" t="s">
         <v>450</v>
       </c>
-      <c r="K49" t="s">
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M49" t="s">
-        <v>452</v>
-      </c>
-      <c r="N49" s="2">
-        <v>1</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="S49" s="4">
         <v>45261</v>
       </c>
-      <c r="T49" s="7" t="s">
-        <v>319</v>
+      <c r="T49" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U49" s="2">
         <v>0</v>
@@ -6602,7 +6603,7 @@
         <v>44</v>
       </c>
       <c r="Y49" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
@@ -6621,18 +6622,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="9">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
         <v>225</v>
       </c>
       <c r="B50" t="s">
+        <v>452</v>
+      </c>
+      <c r="C50" t="s">
+        <v>453</v>
+      </c>
+      <c r="D50" t="s">
         <v>454</v>
-      </c>
-      <c r="C50" t="s">
-        <v>455</v>
-      </c>
-      <c r="D50" t="s">
-        <v>456</v>
       </c>
       <c r="E50" s="2">
         <v>2022</v>
@@ -6640,47 +6641,47 @@
       <c r="F50" t="s">
         <v>38</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>325</v>
+      <c r="G50" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="H50" t="s">
+        <v>455</v>
+      </c>
+      <c r="I50" t="s">
+        <v>269</v>
+      </c>
+      <c r="J50" t="s">
+        <v>456</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M50" t="s">
         <v>457</v>
       </c>
-      <c r="I50" t="s">
-        <v>271</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="N50" s="2">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M50" t="s">
-        <v>459</v>
-      </c>
-      <c r="N50" s="2">
-        <v>1</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>460</v>
       </c>
       <c r="S50" s="4">
         <v>45261</v>
       </c>
-      <c r="T50" s="7" t="s">
-        <v>319</v>
+      <c r="T50" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U50" s="2">
         <v>0</v>
@@ -6690,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Y50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
@@ -6712,24 +6713,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
-      <c r="A51" s="9">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
         <v>2</v>
       </c>
       <c r="B51" t="s">
+        <v>460</v>
+      </c>
+      <c r="C51" t="s">
+        <v>461</v>
+      </c>
+      <c r="D51" t="s">
         <v>462</v>
-      </c>
-      <c r="C51" t="s">
-        <v>463</v>
-      </c>
-      <c r="D51" t="s">
-        <v>464</v>
       </c>
       <c r="E51" s="2">
         <v>2000</v>
       </c>
       <c r="F51" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G51">
         <v>235</v>
@@ -6741,37 +6742,37 @@
         <v>39</v>
       </c>
       <c r="J51" t="s">
+        <v>463</v>
+      </c>
+      <c r="K51" t="s">
+        <v>464</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M51" t="s">
         <v>465</v>
       </c>
-      <c r="K51" t="s">
+      <c r="N51" s="2">
+        <v>1</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M51" t="s">
-        <v>467</v>
-      </c>
-      <c r="N51" s="2">
-        <v>1</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="S51" s="4">
         <v>45261</v>
       </c>
-      <c r="T51" s="7" t="s">
-        <v>319</v>
+      <c r="T51" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
@@ -6781,10 +6782,10 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Y51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
@@ -6803,27 +6804,27 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
-      <c r="A52" s="9">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
         <v>100</v>
       </c>
       <c r="B52" t="s">
+        <v>467</v>
+      </c>
+      <c r="C52" t="s">
+        <v>468</v>
+      </c>
+      <c r="D52" t="s">
         <v>469</v>
-      </c>
-      <c r="C52" t="s">
-        <v>470</v>
-      </c>
-      <c r="D52" t="s">
-        <v>471</v>
       </c>
       <c r="E52" s="2">
         <v>2022</v>
       </c>
       <c r="F52" t="s">
-        <v>472</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>325</v>
+        <v>470</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="H52">
         <v>122</v>
@@ -6832,37 +6833,37 @@
         <v>39</v>
       </c>
       <c r="J52" t="s">
+        <v>471</v>
+      </c>
+      <c r="K52" t="s">
+        <v>472</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M52" t="s">
         <v>473</v>
       </c>
-      <c r="K52" t="s">
+      <c r="N52" s="2">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M52" t="s">
-        <v>475</v>
-      </c>
-      <c r="N52" s="2">
-        <v>1</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="S52" s="4">
         <v>45261</v>
       </c>
-      <c r="T52" s="7" t="s">
-        <v>319</v>
+      <c r="T52" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
@@ -6875,7 +6876,7 @@
         <v>44</v>
       </c>
       <c r="Y52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
@@ -6894,24 +6895,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
-      <c r="A53" s="9">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C53" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D53" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E53" s="2">
         <v>2009</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G53">
         <v>268</v>
@@ -6923,37 +6924,37 @@
         <v>39</v>
       </c>
       <c r="J53" t="s">
+        <v>477</v>
+      </c>
+      <c r="K53" t="s">
+        <v>478</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M53" t="s">
         <v>479</v>
       </c>
-      <c r="K53" t="s">
+      <c r="N53" s="2">
+        <v>1</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M53" t="s">
-        <v>481</v>
-      </c>
-      <c r="N53" s="2">
-        <v>1</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="S53" s="4">
         <v>45261</v>
       </c>
-      <c r="T53" s="7" t="s">
-        <v>319</v>
+      <c r="T53" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
@@ -6963,10 +6964,10 @@
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y53" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
@@ -6985,63 +6986,63 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
-      <c r="A54" s="9">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
         <v>140</v>
       </c>
       <c r="B54" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" t="s">
+        <v>482</v>
+      </c>
+      <c r="D54" t="s">
         <v>483</v>
-      </c>
-      <c r="C54" t="s">
-        <v>484</v>
-      </c>
-      <c r="D54" t="s">
-        <v>485</v>
       </c>
       <c r="E54" s="2">
         <v>2021</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>325</v>
+      <c r="F54" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="I54" t="s">
+        <v>484</v>
+      </c>
+      <c r="J54" t="s">
+        <v>485</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M54" t="s">
         <v>486</v>
       </c>
-      <c r="J54" t="s">
+      <c r="N54" s="2">
+        <v>1</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M54" t="s">
-        <v>488</v>
-      </c>
-      <c r="N54" s="2">
-        <v>1</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="S54" s="4">
         <v>45261</v>
       </c>
-      <c r="T54" s="7" t="s">
-        <v>319</v>
+      <c r="T54" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U54" s="2">
         <v>0</v>
@@ -7052,7 +7053,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
@@ -7061,10 +7062,10 @@
       <c r="AD54" s="2">
         <v>1</v>
       </c>
-      <c r="AE54" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF54" s="10"/>
+      <c r="AE54" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF54" s="11"/>
       <c r="AG54" s="2">
         <v>1</v>
       </c>
@@ -7075,24 +7076,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
-      <c r="A55" s="9">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
         <v>208</v>
       </c>
       <c r="B55" t="s">
+        <v>489</v>
+      </c>
+      <c r="C55" t="s">
+        <v>490</v>
+      </c>
+      <c r="D55" t="s">
         <v>491</v>
-      </c>
-      <c r="C55" t="s">
-        <v>492</v>
-      </c>
-      <c r="D55" t="s">
-        <v>493</v>
       </c>
       <c r="E55" s="2">
         <v>2020</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -7104,37 +7105,37 @@
         <v>39</v>
       </c>
       <c r="J55" t="s">
+        <v>492</v>
+      </c>
+      <c r="K55" t="s">
+        <v>493</v>
+      </c>
+      <c r="L55" t="s">
         <v>494</v>
       </c>
-      <c r="K55" t="s">
+      <c r="M55" t="s">
         <v>495</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" s="2">
+        <v>1</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="M55" t="s">
-        <v>497</v>
-      </c>
-      <c r="N55" s="2">
-        <v>1</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="S55" s="4">
         <v>45261</v>
       </c>
-      <c r="T55" s="7" t="s">
-        <v>319</v>
+      <c r="T55" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U55" s="2">
         <v>0</v>
@@ -7144,10 +7145,10 @@
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Y55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
@@ -7166,63 +7167,63 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
-      <c r="A56" s="9">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
         <v>264</v>
       </c>
       <c r="B56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C56" t="s">
+        <v>498</v>
+      </c>
+      <c r="D56" t="s">
         <v>499</v>
-      </c>
-      <c r="C56" t="s">
-        <v>500</v>
-      </c>
-      <c r="D56" t="s">
-        <v>501</v>
       </c>
       <c r="E56" s="2">
         <v>2008</v>
       </c>
       <c r="F56" t="s">
+        <v>500</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="I56" t="s">
+        <v>269</v>
+      </c>
+      <c r="J56" t="s">
+        <v>501</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M56" t="s">
         <v>502</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="I56" t="s">
-        <v>271</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M56" t="s">
-        <v>504</v>
-      </c>
-      <c r="N56" s="2">
-        <v>1</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="S56" s="4">
         <v>45261</v>
       </c>
-      <c r="T56" s="7" t="s">
-        <v>319</v>
+      <c r="T56" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
@@ -7233,7 +7234,7 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
@@ -7252,24 +7253,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
-      <c r="A57" s="9">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
         <v>58</v>
       </c>
       <c r="B57" t="s">
+        <v>504</v>
+      </c>
+      <c r="C57" t="s">
+        <v>505</v>
+      </c>
+      <c r="D57" t="s">
         <v>506</v>
-      </c>
-      <c r="C57" t="s">
-        <v>507</v>
-      </c>
-      <c r="D57" t="s">
-        <v>508</v>
       </c>
       <c r="E57" s="2">
         <v>2022</v>
       </c>
       <c r="F57" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -7281,37 +7282,37 @@
         <v>39</v>
       </c>
       <c r="J57" t="s">
+        <v>508</v>
+      </c>
+      <c r="K57" t="s">
+        <v>509</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M57" t="s">
         <v>510</v>
       </c>
-      <c r="K57" t="s">
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M57" t="s">
-        <v>512</v>
-      </c>
-      <c r="N57" s="2">
-        <v>1</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="S57" s="4">
         <v>45261</v>
       </c>
-      <c r="T57" s="7" t="s">
-        <v>319</v>
+      <c r="T57" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U57" s="2">
         <v>0</v>
@@ -7321,10 +7322,10 @@
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
@@ -7343,24 +7344,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
-      <c r="A58" s="9">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
         <v>234</v>
       </c>
       <c r="B58" t="s">
+        <v>512</v>
+      </c>
+      <c r="C58" t="s">
+        <v>513</v>
+      </c>
+      <c r="D58" t="s">
         <v>514</v>
-      </c>
-      <c r="C58" t="s">
-        <v>515</v>
-      </c>
-      <c r="D58" t="s">
-        <v>516</v>
       </c>
       <c r="E58" s="2">
         <v>1997</v>
       </c>
       <c r="F58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -7372,34 +7373,34 @@
         <v>39</v>
       </c>
       <c r="J58" t="s">
+        <v>515</v>
+      </c>
+      <c r="K58" t="s">
+        <v>516</v>
+      </c>
+      <c r="M58" t="s">
         <v>517</v>
       </c>
-      <c r="K58" t="s">
+      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="M58" t="s">
-        <v>519</v>
-      </c>
-      <c r="N58" s="2">
-        <v>1</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="S58" s="4">
         <v>45261</v>
       </c>
-      <c r="T58" s="7" t="s">
-        <v>319</v>
+      <c r="T58" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U58" s="2">
         <v>0</v>
@@ -7409,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y58" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
@@ -7431,24 +7432,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
-      <c r="A59" s="9">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
         <v>183</v>
       </c>
       <c r="B59" t="s">
+        <v>519</v>
+      </c>
+      <c r="C59" t="s">
+        <v>520</v>
+      </c>
+      <c r="D59" t="s">
         <v>521</v>
-      </c>
-      <c r="C59" t="s">
-        <v>522</v>
-      </c>
-      <c r="D59" t="s">
-        <v>523</v>
       </c>
       <c r="E59" s="2">
         <v>1998</v>
       </c>
       <c r="F59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -7460,34 +7461,34 @@
         <v>39</v>
       </c>
       <c r="J59" t="s">
+        <v>522</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M59" t="s">
+        <v>523</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M59" t="s">
-        <v>525</v>
-      </c>
-      <c r="N59" s="2">
-        <v>1</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="S59" s="4">
         <v>45261</v>
       </c>
-      <c r="T59" s="7" t="s">
-        <v>319</v>
+      <c r="T59" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U59" s="2">
         <v>0</v>
@@ -7497,10 +7498,10 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Y59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
@@ -7519,16 +7520,16 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
-      <c r="A60" s="7"/>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
       <c r="B60" t="s">
+        <v>526</v>
+      </c>
+      <c r="C60" t="s">
+        <v>527</v>
+      </c>
+      <c r="D60" t="s">
         <v>528</v>
-      </c>
-      <c r="C60" t="s">
-        <v>529</v>
-      </c>
-      <c r="D60" t="s">
-        <v>530</v>
       </c>
       <c r="E60" s="2">
         <v>2011</v>
@@ -7536,16 +7537,16 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="7" t="s">
-        <v>531</v>
+      <c r="I60" s="6" t="s">
+        <v>529</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N60" s="2">
         <v>1</v>
@@ -7560,13 +7561,13 @@
         <v>0</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S60" s="4">
         <v>45261</v>
       </c>
-      <c r="T60" s="7" t="s">
-        <v>319</v>
+      <c r="T60" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="U60" s="2">
         <v>0</v>
@@ -7577,7 +7578,7 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
@@ -7597,10 +7598,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AE54:AF54"/>
+  <mergeCells count="1">
     <mergeCell ref="J60:L60"/>
   </mergeCells>
   <hyperlinks>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_27.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C6054-FE17-6544-886B-411AD14139CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B70D9-008E-374B-8EC8-47CFD20AD333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="-21100" windowWidth="29040" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="533">
   <si>
     <t>record_id</t>
   </si>
@@ -1700,7 +1700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1724,7 +1724,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2111,7 +2110,7 @@
   <dimension ref="A1:AI60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R2" zoomScale="150" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2753,7 +2752,10 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>525</v>
       </c>
       <c r="Y7" t="s">
         <v>45</v>
@@ -5883,7 +5885,6 @@
       <c r="AE41" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="AF41" s="11"/>
       <c r="AG41" s="2">
         <v>1</v>
       </c>
@@ -6517,10 +6518,9 @@
       <c r="AD48" s="2">
         <v>1</v>
       </c>
-      <c r="AE48" s="11" t="s">
+      <c r="AE48" t="s">
         <v>443</v>
       </c>
-      <c r="AF48" s="11"/>
       <c r="AG48" s="2">
         <v>1</v>
       </c>
@@ -7062,10 +7062,9 @@
       <c r="AD54" s="2">
         <v>1</v>
       </c>
-      <c r="AE54" s="11" t="s">
+      <c r="AE54" t="s">
         <v>488</v>
       </c>
-      <c r="AF54" s="11"/>
       <c r="AG54" s="2">
         <v>1</v>
       </c>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_27.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39B70D9-008E-374B-8EC8-47CFD20AD333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC6AE9-184B-5945-9064-70FCCAEAAB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="-21100" windowWidth="29040" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="536">
   <si>
     <t>record_id</t>
   </si>
@@ -116,12 +116,6 @@
     <t>rid2</t>
   </si>
   <si>
-    <t>contact_authors</t>
-  </si>
-  <si>
-    <t>reason_for_contact</t>
-  </si>
-  <si>
     <t>appendix</t>
   </si>
   <si>
@@ -857,9 +851,6 @@
     <t>Castelnuovo_2022_delayed</t>
   </si>
   <si>
-    <t>"event": true?</t>
-  </si>
-  <si>
     <t>8E9TIRTP</t>
   </si>
   <si>
@@ -1214,9 +1205,6 @@
     <t>https://doi.org/10.1016/j.jmoneco.2019.01.021</t>
   </si>
   <si>
-    <t>interest_rate_diff?; "dep": log_a? or logdiff_a?; "eglob": true?;</t>
-  </si>
-  <si>
     <t>PPL3S7Y2</t>
   </si>
   <si>
@@ -1367,9 +1355,6 @@
     <t>https://doi.org/10.1016/j.econmod.2023.106519</t>
   </si>
   <si>
-    <t>"eglob": false?</t>
-  </si>
-  <si>
     <t>Q85ZMJI3</t>
   </si>
   <si>
@@ -1502,9 +1487,6 @@
     <t>http://www.igidr.ac.in/pdf/publication/_WP-2021-021.pdf</t>
   </si>
   <si>
-    <t>excluded: path factor?, convent?, pure rate shock?</t>
-  </si>
-  <si>
     <t>HYX9KHSY</t>
   </si>
   <si>
@@ -1635,6 +1617,33 @@
   </si>
   <si>
     <t>https://doi.org/10.1093/oxfordhb/9780199559084.013.0008</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>recoding_check</t>
+  </si>
+  <si>
+    <t>full_random_check; interest_rate_diff?; "dep": log_a? or logdiff_a?; "eglob": true?;</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>full_random_check; "event": true?</t>
+  </si>
+  <si>
+    <t>sg</t>
+  </si>
+  <si>
+    <t>full_random_check; "eglob": false?</t>
+  </si>
+  <si>
+    <t>full_random_check; excluded: path factor?, convent?, pure rate shock?</t>
+  </si>
+  <si>
+    <t>full_random_check</t>
   </si>
 </sst>
 </file>
@@ -2107,15 +2116,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI60"/>
+  <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R2" zoomScale="150" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="W8" zoomScale="150" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2212,34 +2221,28 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>197</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
       </c>
       <c r="E2">
         <v>2023</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G2" t="e">
         <f>#N/A</f>
@@ -2250,20 +2253,20 @@
         <v>#N/A</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K2" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -2278,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S2" s="4">
         <v>45261</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U2" s="2">
         <v>0</v>
@@ -2294,69 +2297,67 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>245</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
       </c>
       <c r="E3">
         <v>2020</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K3" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
@@ -2371,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S3" s="4">
         <v>45261</v>
       </c>
       <c r="T3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
@@ -2388,85 +2389,89 @@
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AG3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>136</v>
       </c>
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
       </c>
       <c r="E4">
         <v>2022</v>
       </c>
       <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>58</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
       </c>
       <c r="K4" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="S4" s="4">
         <v>45261</v>
       </c>
       <c r="T4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -2476,40 +2481,38 @@
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>188</v>
       </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
       </c>
       <c r="E5">
         <v>2022</v>
@@ -2527,20 +2530,20 @@
         <v>#N/A</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
         <v>68</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="s">
-        <v>71</v>
-      </c>
       <c r="N5" s="2">
         <v>1</v>
       </c>
@@ -2554,86 +2557,84 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S5" s="4">
         <v>45261</v>
       </c>
       <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s">
         <v>43</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>45</v>
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>83</v>
       </c>
       <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
       </c>
       <c r="E6">
         <v>2006</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
         <v>78</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
       </c>
       <c r="L6" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N6" s="2">
         <v>1</v>
@@ -2648,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S6" s="4">
         <v>45261</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -2664,88 +2665,86 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>165</v>
       </c>
       <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
       </c>
       <c r="E7">
         <v>2018</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>89</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="M7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="S7" s="4">
         <v>45261</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -2755,40 +2754,38 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="Y7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>192</v>
       </c>
       <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
       </c>
       <c r="E8">
         <v>2020</v>
@@ -2806,41 +2803,41 @@
         <v>#N/A</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="M8" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="S8" s="4">
         <v>45261</v>
       </c>
       <c r="T8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2850,40 +2847,38 @@
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>200</v>
       </c>
       <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
       </c>
       <c r="E9">
         <v>2009</v>
@@ -2901,110 +2896,114 @@
         <v>#N/A</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>108</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="M9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="S9" s="4">
         <v>45261</v>
       </c>
       <c r="T9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W9" s="2">
         <v>1</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AG9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
         <v>112</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
       </c>
       <c r="E10">
         <v>2020</v>
       </c>
       <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
         <v>116</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>117</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" t="s">
-        <v>119</v>
       </c>
       <c r="L10" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -3019,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S10" s="4">
         <v>45261</v>
       </c>
       <c r="T10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -3035,68 +3034,66 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>181</v>
       </c>
       <c r="B11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
         <v>123</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
       </c>
       <c r="E11">
         <v>2023</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
         <v>126</v>
-      </c>
-      <c r="H11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" t="s">
-        <v>128</v>
       </c>
       <c r="K11" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N11" s="2">
         <v>1</v>
@@ -3111,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S11" s="4">
         <v>45261</v>
       </c>
       <c r="T11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -3127,40 +3124,38 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
-      </c>
-      <c r="AI11">
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>236</v>
       </c>
       <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
         <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>133</v>
       </c>
       <c r="E12">
         <v>2020</v>
@@ -3178,113 +3173,111 @@
         <v>#N/A</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
         <v>134</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>135</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="M12" t="s">
-        <v>137</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="S12" s="4">
         <v>45261</v>
       </c>
       <c r="T12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s">
         <v>43</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>45</v>
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
-      <c r="AI12">
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
         <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
       </c>
       <c r="E13">
         <v>2022</v>
       </c>
       <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
         <v>142</v>
       </c>
-      <c r="G13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>143</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" t="s">
-        <v>145</v>
       </c>
       <c r="L13" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -3299,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="S13" s="4">
         <v>45261</v>
       </c>
       <c r="T13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -3315,68 +3308,66 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AI13">
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>45</v>
       </c>
       <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
         <v>149</v>
-      </c>
-      <c r="C14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" t="s">
-        <v>151</v>
       </c>
       <c r="E14">
         <v>2011</v>
       </c>
       <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
         <v>152</v>
       </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>153</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K14" t="s">
-        <v>155</v>
       </c>
       <c r="L14" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N14" s="2">
         <v>1</v>
@@ -3391,13 +3382,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S14" s="4">
         <v>45261</v>
       </c>
       <c r="T14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3407,89 +3398,87 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <v>1</v>
-      </c>
-      <c r="AI14">
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>193</v>
       </c>
       <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
         <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" t="s">
-        <v>160</v>
       </c>
       <c r="E15">
         <v>2016</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="H15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
         <v>162</v>
       </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>164</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="M15" t="s">
-        <v>166</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="S15" s="4">
         <v>45261</v>
       </c>
       <c r="T15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3499,40 +3488,38 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH15">
-        <v>1</v>
-      </c>
-      <c r="AI15">
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="16" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>109</v>
       </c>
       <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
         <v>170</v>
-      </c>
-      <c r="C16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" t="s">
-        <v>172</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -3550,20 +3537,20 @@
         <v>#N/A</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L16" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
@@ -3578,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="S16" s="4">
         <v>45261</v>
       </c>
       <c r="T16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -3595,42 +3582,46 @@
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z16" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AG16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>1</v>
-      </c>
-      <c r="AI16">
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>211</v>
       </c>
       <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" t="s">
         <v>177</v>
-      </c>
-      <c r="C17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" t="s">
-        <v>179</v>
       </c>
       <c r="E17">
         <v>2022</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G17" t="e">
         <f>#N/A</f>
@@ -3641,40 +3632,40 @@
         <v>#N/A</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
         <v>181</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>182</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="M17" t="s">
-        <v>184</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="S17" s="4">
         <v>45261</v>
       </c>
       <c r="T17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -3684,68 +3675,66 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH17">
-        <v>1</v>
-      </c>
-      <c r="AI17">
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>115</v>
       </c>
       <c r="B18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" t="s">
         <v>186</v>
-      </c>
-      <c r="C18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" t="s">
-        <v>188</v>
       </c>
       <c r="E18">
         <v>2022</v>
       </c>
       <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
         <v>189</v>
       </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>190</v>
-      </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" t="s">
-        <v>192</v>
       </c>
       <c r="L18" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
@@ -3760,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="S18" s="4">
         <v>45261</v>
       </c>
       <c r="T18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -3776,68 +3765,66 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>1</v>
-      </c>
-      <c r="AI18">
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>47</v>
       </c>
       <c r="B19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" t="s">
         <v>195</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" t="s">
-        <v>197</v>
       </c>
       <c r="E19">
         <v>2005</v>
       </c>
       <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
         <v>198</v>
       </c>
-      <c r="G19" t="s">
+      <c r="K19" t="s">
         <v>199</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" t="s">
-        <v>201</v>
       </c>
       <c r="L19" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
@@ -3852,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="S19" s="4">
         <v>45261</v>
       </c>
       <c r="T19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -3868,89 +3855,87 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AI19">
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>137</v>
       </c>
       <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" t="s">
         <v>205</v>
-      </c>
-      <c r="C20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" t="s">
-        <v>207</v>
       </c>
       <c r="E20">
         <v>1994</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K20" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s">
+        <v>209</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="M20" t="s">
-        <v>211</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="S20" s="4">
         <v>45261</v>
       </c>
       <c r="T20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -3960,68 +3945,66 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
-      </c>
-      <c r="AI20">
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>212</v>
       </c>
       <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" t="s">
         <v>213</v>
-      </c>
-      <c r="C21" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" t="s">
-        <v>215</v>
       </c>
       <c r="E21">
         <v>2023</v>
       </c>
       <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" t="s">
         <v>216</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
         <v>217</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>218</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" t="s">
-        <v>219</v>
-      </c>
-      <c r="K21" t="s">
-        <v>220</v>
       </c>
       <c r="L21" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2">
         <v>1</v>
@@ -4036,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="S21" s="4">
         <v>45261</v>
       </c>
       <c r="T21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -4053,36 +4036,40 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z21" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AG21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH21">
-        <v>1</v>
-      </c>
-      <c r="AI21">
+      <c r="AB21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>263</v>
       </c>
       <c r="B22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" t="s">
         <v>223</v>
-      </c>
-      <c r="C22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" t="s">
-        <v>225</v>
       </c>
       <c r="E22">
         <v>2023</v>
@@ -4100,20 +4087,20 @@
         <v>#N/A</v>
       </c>
       <c r="I22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K22" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2">
         <v>1</v>
@@ -4128,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S22" s="4">
         <v>45261</v>
       </c>
       <c r="T22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -4144,40 +4131,38 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH22">
-        <v>1</v>
-      </c>
-      <c r="AI22">
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>224</v>
       </c>
       <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" t="s">
         <v>230</v>
-      </c>
-      <c r="C23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" t="s">
-        <v>232</v>
       </c>
       <c r="E23">
         <v>2016</v>
@@ -4195,40 +4180,40 @@
         <v>#N/A</v>
       </c>
       <c r="I23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
         <v>233</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>234</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="M23" t="s">
-        <v>236</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="S23" s="4">
         <v>45261</v>
       </c>
       <c r="T23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
@@ -4239,64 +4224,68 @@
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z23" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AG23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH23">
-        <v>1</v>
-      </c>
-      <c r="AI23">
+      <c r="AB23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>77</v>
       </c>
       <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" t="s">
         <v>238</v>
-      </c>
-      <c r="C24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" t="s">
-        <v>240</v>
       </c>
       <c r="E24">
         <v>2005</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
+        <v>239</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
         <v>241</v>
-      </c>
-      <c r="I24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" t="s">
-        <v>242</v>
-      </c>
-      <c r="K24" t="s">
-        <v>243</v>
       </c>
       <c r="L24" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -4311,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S24" s="4">
         <v>45261</v>
       </c>
       <c r="T24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
@@ -4328,84 +4317,88 @@
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z24" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AG24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH24">
-        <v>1</v>
-      </c>
-      <c r="AI24">
+      <c r="AB24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>146</v>
       </c>
       <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" t="s">
         <v>246</v>
-      </c>
-      <c r="C25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" t="s">
-        <v>248</v>
       </c>
       <c r="E25">
         <v>2021</v>
       </c>
       <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
         <v>249</v>
       </c>
-      <c r="G25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>250</v>
       </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>251</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>252</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="M25" t="s">
-        <v>254</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="S25" s="4">
         <v>45261</v>
       </c>
       <c r="T25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
@@ -4415,68 +4408,66 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH25">
-        <v>1</v>
-      </c>
-      <c r="AI25">
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>260</v>
       </c>
       <c r="B26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" t="s">
         <v>256</v>
-      </c>
-      <c r="C26" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" t="s">
-        <v>258</v>
       </c>
       <c r="E26">
         <v>2023</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H26" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" t="s">
         <v>259</v>
       </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>260</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>261</v>
       </c>
-      <c r="L26" t="s">
-        <v>262</v>
-      </c>
-      <c r="M26" t="s">
-        <v>263</v>
-      </c>
       <c r="N26" s="2">
         <v>1</v>
       </c>
@@ -4490,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S26" s="4">
         <v>45261</v>
       </c>
       <c r="T26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
@@ -4506,43 +4497,47 @@
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z26" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>43</v>
+      </c>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
+      <c r="AB26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH26">
-        <v>1</v>
-      </c>
-      <c r="AI26">
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>261</v>
       </c>
       <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" t="s">
         <v>265</v>
-      </c>
-      <c r="C27" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" t="s">
-        <v>267</v>
       </c>
       <c r="E27">
         <v>2022</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G27" t="e">
         <f>#N/A</f>
@@ -4553,20 +4548,20 @@
         <v>#N/A</v>
       </c>
       <c r="I27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K27" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2">
         <v>1</v>
@@ -4581,13 +4576,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S27" s="4">
         <v>45261</v>
       </c>
       <c r="T27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -4597,47 +4592,47 @@
         <v>1</v>
       </c>
       <c r="Y27" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z27" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>532</v>
+      </c>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH27">
-        <v>1</v>
-      </c>
-      <c r="AI27">
+      <c r="AB27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>239</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E28">
         <v>2023</v>
       </c>
       <c r="F28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G28" t="e">
         <f>#N/A</f>
@@ -4648,20 +4643,20 @@
         <v>#N/A</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K28" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N28" s="2">
         <v>1</v>
@@ -4676,13 +4671,13 @@
         <v>0</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S28" s="4">
         <v>45261</v>
       </c>
       <c r="T28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
@@ -4692,65 +4687,69 @@
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z28" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>43</v>
+      </c>
       <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
+      <c r="AB28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH28">
-        <v>1</v>
-      </c>
-      <c r="AI28">
+      <c r="AE28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E29">
         <v>2021</v>
       </c>
       <c r="F29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L29" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N29" s="2">
         <v>1</v>
@@ -4765,13 +4764,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S29" s="4">
         <v>45261</v>
       </c>
       <c r="T29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
@@ -4781,67 +4780,71 @@
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2">
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
-      <c r="AI29">
+      <c r="AE29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D30" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E30">
         <v>2019</v>
       </c>
       <c r="F30" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K30" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N30" s="2">
         <v>1</v>
@@ -4856,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S30" s="4">
         <v>45261</v>
       </c>
       <c r="T30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
@@ -4872,40 +4875,38 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH30">
-        <v>1</v>
-      </c>
-      <c r="AI30">
+      <c r="AE30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>1</v>
+      </c>
+      <c r="AG30">
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E31">
         <v>2021</v>
@@ -4923,40 +4924,40 @@
         <v>#N/A</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
+        <v>301</v>
+      </c>
+      <c r="K31" t="s">
+        <v>302</v>
+      </c>
+      <c r="L31" t="s">
+        <v>303</v>
+      </c>
+      <c r="M31" t="s">
         <v>304</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="L31" t="s">
-        <v>306</v>
-      </c>
-      <c r="M31" t="s">
-        <v>307</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="S31" s="4">
         <v>45261</v>
       </c>
       <c r="T31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
@@ -4966,43 +4967,47 @@
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z31" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>43</v>
+      </c>
       <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
+      <c r="AB31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH31">
-        <v>1</v>
-      </c>
-      <c r="AI31">
+      <c r="AE31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E32" s="2">
         <v>2021</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G32">
         <v>636</v>
@@ -5011,37 +5016,37 @@
         <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s">
+        <v>310</v>
+      </c>
+      <c r="K32" t="s">
+        <v>311</v>
+      </c>
+      <c r="M32" t="s">
+        <v>312</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="K32" t="s">
-        <v>314</v>
-      </c>
-      <c r="M32" t="s">
-        <v>315</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="S32" s="4">
         <v>45261</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -5051,46 +5056,44 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
+      <c r="AE32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>1</v>
+      </c>
       <c r="AG32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E33" s="2">
         <v>2018</v>
       </c>
       <c r="F33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -5099,40 +5102,40 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s">
+        <v>318</v>
+      </c>
+      <c r="K33" t="s">
+        <v>319</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M33" t="s">
         <v>321</v>
       </c>
-      <c r="K33" t="s">
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M33" t="s">
-        <v>324</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="S33" s="4">
         <v>45261</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
@@ -5142,46 +5145,44 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Y33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
+      <c r="AE33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>1</v>
+      </c>
       <c r="AG33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E34" s="2">
         <v>2021</v>
       </c>
       <c r="F34" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G34">
         <v>69</v>
@@ -5190,40 +5191,40 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s">
+        <v>328</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s">
+        <v>329</v>
+      </c>
+      <c r="M34" t="s">
+        <v>330</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>331</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L34" t="s">
-        <v>332</v>
-      </c>
-      <c r="M34" t="s">
-        <v>333</v>
-      </c>
-      <c r="N34" s="2">
-        <v>1</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="S34" s="4">
         <v>45261</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
@@ -5233,46 +5234,44 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Y34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
+      <c r="AE34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>1</v>
+      </c>
       <c r="AG34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E35" s="2">
         <v>2018</v>
       </c>
       <c r="F35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -5281,40 +5280,40 @@
         <v>86</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s">
+        <v>336</v>
+      </c>
+      <c r="K35" t="s">
+        <v>337</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="s">
+        <v>338</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="K35" t="s">
-        <v>340</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M35" t="s">
-        <v>341</v>
-      </c>
-      <c r="N35" s="2">
-        <v>1</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="S35" s="4">
         <v>45261</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U35" s="2">
         <v>0</v>
@@ -5324,46 +5323,44 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
+      <c r="AE35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>1</v>
+      </c>
       <c r="AG35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E36" s="2">
         <v>2022</v>
       </c>
       <c r="F36" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -5372,40 +5369,40 @@
         <v>228</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s">
+        <v>343</v>
+      </c>
+      <c r="K36" t="s">
+        <v>344</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="s">
+        <v>345</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="K36" t="s">
-        <v>347</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M36" t="s">
-        <v>348</v>
-      </c>
-      <c r="N36" s="2">
-        <v>1</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>349</v>
       </c>
       <c r="S36" s="4">
         <v>45261</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
@@ -5415,88 +5412,86 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Y36" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
+      <c r="AE36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>1</v>
+      </c>
       <c r="AG36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C37" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E37" s="2">
         <v>2020</v>
       </c>
       <c r="F37" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G37" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H37">
         <v>52</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s">
+        <v>353</v>
+      </c>
+      <c r="K37" t="s">
+        <v>354</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M37" t="s">
+        <v>355</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="K37" t="s">
-        <v>357</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M37" t="s">
-        <v>358</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="S37" s="4">
         <v>45261</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
@@ -5506,46 +5501,44 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
+      <c r="AE37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>1</v>
+      </c>
       <c r="AG37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>259</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E38" s="2">
         <v>2020</v>
       </c>
       <c r="F38" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G38">
         <v>314</v>
@@ -5554,40 +5547,40 @@
         <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s">
+        <v>361</v>
+      </c>
+      <c r="K38" t="s">
+        <v>362</v>
+      </c>
+      <c r="L38" t="s">
+        <v>363</v>
+      </c>
+      <c r="M38" t="s">
         <v>364</v>
       </c>
-      <c r="K38" t="s">
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="L38" t="s">
-        <v>366</v>
-      </c>
-      <c r="M38" t="s">
-        <v>367</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="S38" s="4">
         <v>45261</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
@@ -5597,88 +5590,86 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
+      <c r="AE38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>1</v>
+      </c>
       <c r="AG38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E39" s="2">
         <v>2017</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J39" t="s">
+        <v>369</v>
+      </c>
+      <c r="K39" t="s">
+        <v>370</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" t="s">
+        <v>371</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="K39" t="s">
-        <v>373</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M39" t="s">
-        <v>374</v>
-      </c>
-      <c r="N39" s="2">
-        <v>1</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="S39" s="4">
         <v>45261</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
@@ -5688,46 +5679,44 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y39" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
+      <c r="AE39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>1</v>
+      </c>
       <c r="AG39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C40" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D40" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E40" s="2">
         <v>2018</v>
       </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -5736,40 +5725,40 @@
         <v>108</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s">
+        <v>376</v>
+      </c>
+      <c r="K40" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M40" t="s">
+        <v>378</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="K40" t="s">
-        <v>380</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M40" t="s">
-        <v>381</v>
-      </c>
-      <c r="N40" s="2">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="S40" s="4">
         <v>45261</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U40" s="2">
         <v>0</v>
@@ -5780,87 +5769,91 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2">
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
+      <c r="AE40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>1</v>
+      </c>
       <c r="AG40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D41" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E41" s="2">
         <v>2020</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H41">
         <v>112</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J41" t="s">
+        <v>384</v>
+      </c>
+      <c r="K41" t="s">
+        <v>385</v>
+      </c>
+      <c r="L41" t="s">
+        <v>386</v>
+      </c>
+      <c r="M41" t="s">
         <v>387</v>
       </c>
-      <c r="K41" t="s">
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="L41" t="s">
-        <v>389</v>
-      </c>
-      <c r="M41" t="s">
-        <v>390</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="S41" s="4">
         <v>45261</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U41" s="2">
         <v>0</v>
@@ -5871,90 +5864,90 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="7" t="s">
-        <v>392</v>
+        <v>262</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>1</v>
       </c>
       <c r="AG41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>247</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D42" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E42" s="2">
         <v>1994</v>
       </c>
       <c r="F42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="I42" t="s">
+        <v>393</v>
+      </c>
+      <c r="J42" t="s">
+        <v>394</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s">
+        <v>395</v>
+      </c>
+      <c r="M42" t="s">
         <v>396</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="J42" t="s">
-        <v>398</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L42" t="s">
-        <v>399</v>
-      </c>
-      <c r="M42" t="s">
-        <v>400</v>
-      </c>
-      <c r="N42" s="2">
-        <v>1</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="S42" s="4">
         <v>45261</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
@@ -5964,67 +5957,65 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
+      <c r="AE42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>1</v>
+      </c>
       <c r="AG42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <v>251</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C43" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D43" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E43" s="2">
         <v>2017</v>
       </c>
       <c r="F43" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M43" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="N43" s="2">
         <v>1</v>
@@ -6039,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="S43" s="4">
         <v>45261</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U43" s="2">
         <v>0</v>
@@ -6055,46 +6046,44 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
+      <c r="AE43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>1</v>
+      </c>
       <c r="AG43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C44" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D44" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E44" s="2">
         <v>2021</v>
       </c>
       <c r="F44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -6103,19 +6092,19 @@
         <v>225</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N44" s="2">
         <v>1</v>
@@ -6130,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="S44" s="4">
         <v>45261</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
@@ -6146,46 +6135,44 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
+      <c r="AE44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>1</v>
+      </c>
       <c r="AG44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C45" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D45" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E45" s="2">
         <v>2007</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -6194,19 +6181,19 @@
         <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K45" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M45" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="N45" s="2">
         <v>1</v>
@@ -6221,13 +6208,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="S45" s="4">
         <v>45261</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U45" s="2">
         <v>0</v>
@@ -6237,67 +6224,65 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
+      <c r="AE45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>1</v>
+      </c>
       <c r="AG45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <v>237</v>
       </c>
       <c r="B46" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C46" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D46" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E46" s="2">
         <v>2021</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J46" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="N46" s="2">
         <v>1</v>
@@ -6312,13 +6297,13 @@
         <v>0</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="S46" s="4">
         <v>45261</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
@@ -6329,64 +6314,68 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z46" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>43</v>
+      </c>
       <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
+      <c r="AB46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="2"/>
+      <c r="AE46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>1</v>
+      </c>
       <c r="AG46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C47" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E47" s="2">
         <v>2021</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I47" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J47" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="K47" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M47" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N47" s="2">
         <v>1</v>
@@ -6401,13 +6390,13 @@
         <v>0</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="S47" s="4">
         <v>45261</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
@@ -6418,64 +6407,68 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z47" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>43</v>
+      </c>
       <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
+      <c r="AB47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
+      <c r="AE47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>1</v>
+      </c>
       <c r="AG47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C48" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D48" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E48" s="2">
         <v>2023</v>
       </c>
       <c r="F48" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G48" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H48">
         <v>128</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="N48" s="2">
         <v>1</v>
@@ -6490,13 +6483,13 @@
         <v>0</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="S48" s="4">
         <v>45261</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
@@ -6507,69 +6500,69 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>443</v>
+        <v>262</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>1</v>
       </c>
       <c r="AG48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="2">
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C49" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D49" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E49" s="2">
         <v>2015</v>
       </c>
       <c r="F49" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G49" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H49">
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K49" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N49" s="2">
         <v>1</v>
@@ -6584,13 +6577,13 @@
         <v>0</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="S49" s="4">
         <v>45261</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U49" s="2">
         <v>0</v>
@@ -6600,67 +6593,65 @@
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
+      <c r="AE49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>1</v>
+      </c>
       <c r="AG49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI49" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <v>225</v>
       </c>
       <c r="B50" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C50" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D50" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E50" s="2">
         <v>2022</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H50" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J50" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M50" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="N50" s="2">
         <v>1</v>
@@ -6675,13 +6666,13 @@
         <v>0</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="S50" s="4">
         <v>45261</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U50" s="2">
         <v>0</v>
@@ -6691,46 +6682,44 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="Y50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
+      <c r="AE50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>1</v>
+      </c>
       <c r="AG50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI50" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D51" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E51" s="2">
         <v>2000</v>
       </c>
       <c r="F51" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G51">
         <v>235</v>
@@ -6739,19 +6728,19 @@
         <v>76</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K51" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N51" s="2">
         <v>1</v>
@@ -6766,13 +6755,13 @@
         <v>0</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="S51" s="4">
         <v>45261</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
@@ -6782,67 +6771,65 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y51" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
+      <c r="AE51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>1</v>
+      </c>
       <c r="AG51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C52" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D52" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E52" s="2">
         <v>2022</v>
       </c>
       <c r="F52" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H52">
         <v>122</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J52" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K52" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M52" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N52" s="2">
         <v>1</v>
@@ -6857,13 +6844,13 @@
         <v>0</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="S52" s="4">
         <v>45261</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
@@ -6873,46 +6860,44 @@
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
+      <c r="AE52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>1</v>
+      </c>
       <c r="AG52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI52" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C53" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D53" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E53" s="2">
         <v>2009</v>
       </c>
       <c r="F53" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G53">
         <v>268</v>
@@ -6921,19 +6906,19 @@
         <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J53" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K53" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M53" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="N53" s="2">
         <v>1</v>
@@ -6948,13 +6933,13 @@
         <v>0</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="S53" s="4">
         <v>45261</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
@@ -6964,64 +6949,62 @@
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
+      <c r="AE53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>1</v>
+      </c>
       <c r="AG53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A54" s="8">
         <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C54" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D54" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E54" s="2">
         <v>2021</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I54" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J54" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M54" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="N54" s="2">
         <v>1</v>
@@ -7036,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="S54" s="4">
         <v>45261</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U54" s="2">
         <v>0</v>
@@ -7053,46 +7036,46 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z54" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>43</v>
+      </c>
       <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>488</v>
+      <c r="AB54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>534</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>1</v>
       </c>
       <c r="AG54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A55" s="8">
         <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C55" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D55" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E55" s="2">
         <v>2020</v>
       </c>
       <c r="F55" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -7101,19 +7084,19 @@
         <v>52</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J55" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K55" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L55" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M55" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="N55" s="2">
         <v>1</v>
@@ -7128,13 +7111,13 @@
         <v>0</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="S55" s="4">
         <v>45261</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U55" s="2">
         <v>0</v>
@@ -7144,64 +7127,62 @@
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Y55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
+      <c r="AE55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>1</v>
+      </c>
       <c r="AG55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI55" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A56" s="8">
         <v>264</v>
       </c>
       <c r="B56" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C56" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D56" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E56" s="2">
         <v>2008</v>
       </c>
       <c r="F56" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J56" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M56" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="N56" s="2">
         <v>1</v>
@@ -7216,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="S56" s="4">
         <v>45261</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U56" s="2">
         <v>0</v>
@@ -7233,43 +7214,47 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z56" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>43</v>
+      </c>
       <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
+      <c r="AB56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="2"/>
+      <c r="AE56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>1</v>
+      </c>
       <c r="AG56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A57" s="8">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C57" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D57" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E57" s="2">
         <v>2022</v>
       </c>
       <c r="F57" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -7278,19 +7263,19 @@
         <v>77</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J57" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K57" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M57" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="N57" s="2">
         <v>1</v>
@@ -7305,13 +7290,13 @@
         <v>0</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="S57" s="4">
         <v>45261</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U57" s="2">
         <v>0</v>
@@ -7321,46 +7306,44 @@
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
+      <c r="AE57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>1</v>
+      </c>
       <c r="AG57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI57" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A58" s="8">
         <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C58" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D58" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E58" s="2">
         <v>1997</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -7369,16 +7352,16 @@
         <v>105</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J58" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K58" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="M58" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="N58" s="2">
         <v>1</v>
@@ -7393,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="S58" s="4">
         <v>45261</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U58" s="2">
         <v>0</v>
@@ -7409,46 +7392,44 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Y58" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
+      <c r="AE58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>1</v>
+      </c>
       <c r="AG58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C59" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D59" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E59" s="2">
         <v>1998</v>
       </c>
       <c r="F59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -7457,16 +7438,16 @@
         <v>113</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J59" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M59" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="N59" s="2">
         <v>1</v>
@@ -7481,13 +7462,13 @@
         <v>0</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="S59" s="4">
         <v>45261</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U59" s="2">
         <v>0</v>
@@ -7497,38 +7478,36 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="Y59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
-      <c r="AF59" s="2"/>
+      <c r="AE59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>1</v>
+      </c>
       <c r="AG59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C60" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D60" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E60" s="2">
         <v>2011</v>
@@ -7537,15 +7516,15 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="N60" s="2">
         <v>1</v>
@@ -7560,13 +7539,13 @@
         <v>0</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="S60" s="4">
         <v>45261</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U60" s="2">
         <v>0</v>
@@ -7577,22 +7556,26 @@
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z60" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>43</v>
+      </c>
       <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
+      <c r="AB60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>528</v>
+      </c>
       <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="2"/>
+      <c r="AE60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>1</v>
+      </c>
       <c r="AG60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="2">
         <v>222</v>
       </c>
     </row>
